--- a/biology/Zoologie/Cleocnemis_heteropoda/Cleocnemis_heteropoda.xlsx
+++ b/biology/Zoologie/Cleocnemis_heteropoda/Cleocnemis_heteropoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cleocnemis heteropoda est une espèce d'araignées aranéomorphes de la famille des Philodromidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cleocnemis heteropoda est une espèce d'araignées aranéomorphes de la famille des Philodromidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre au Minas Gerais, dans l'État de Rio de Janeiro, au Paraná et au Rio Grande do Sul[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre au Minas Gerais, dans l'État de Rio de Janeiro, au Paraná et au Rio Grande do Sul.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 3,5 mm et la femelle syntype 3,5 mm[3].
-Le mâle décrit par Prado, Baptista, Schinelli et Takiya en 2022 mesure 3,50 mm et la femelle 4,76 mm, les mâles mesurent de 3,42 à 3,88 mm et les femelles de 4,33 à 4,92 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 3,5 mm et la femelle syntype 3,5 mm.
+Le mâle décrit par Prado, Baptista, Schinelli et Takiya en 2022 mesure 3,50 mm et la femelle 4,76 mm, les mâles mesurent de 3,42 à 3,88 mm et les femelles de 4,33 à 4,92 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1886.
-Berlandiella polyacantha[4], Metacleocnemis borgmeyeri[4] et Berlandiella meridionalis[5] ont été placées en synonymie par Prado, Baptista, Schinelli et Takiya en 2022[2].
+Berlandiella polyacantha, Metacleocnemis borgmeyeri et Berlandiella meridionalis ont été placées en synonymie par Prado, Baptista, Schinelli et Takiya en 2022.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1886 : « Espèces et genres nouveaux de la famille des Thomisidae. » Actes de la Société linnéenne de Bordeaux, vol. 40, p. 167-187 (texte intégral).</t>
         </is>
